--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4082604.487914938</v>
+        <v>4080724.308144609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7528636.540405044</v>
+        <v>7528636.540405043</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>181.804330416593</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.10844059186255</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>9.220846587376196</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>318.157743319284</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>190.6440902478826</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>26.32882004050031</v>
+        <v>9.461970681989245</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>322.7838378298593</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.7937263796629</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.92600812502312</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896925</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>88.70212691485435</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -1582,19 +1582,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>203.8435192151914</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>33.35146980185743</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>70.41761368552135</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808142</v>
       </c>
       <c r="S19" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
-        <v>241.0969919981166</v>
+        <v>105.2253177460333</v>
       </c>
       <c r="W19" t="n">
         <v>275.4823470108796</v>
       </c>
       <c r="X19" t="n">
-        <v>214.6690040633257</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>70.41761368552129</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>22.98075994447373</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326778</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>70.41761368552106</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578918</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
-        <v>210.5069097326778</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>189.4081449854703</v>
       </c>
       <c r="V25" t="n">
         <v>241.0969919981166</v>
@@ -2539,7 +2539,7 @@
         <v>275.4823470108796</v>
       </c>
       <c r="X25" t="n">
-        <v>214.6690040633257</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808135</v>
       </c>
       <c r="S28" t="n">
         <v>186.8801586578918</v>
@@ -2767,10 +2767,10 @@
         <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
-        <v>275.1967010728659</v>
+        <v>111.4522747958127</v>
       </c>
       <c r="V28" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>275.4823470108796</v>
@@ -2779,7 +2779,7 @@
         <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>70.41761368552075</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="29">
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2950,7 +2950,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>26.54790520245164</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>70.41761368552076</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S31" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
       </c>
       <c r="V31" t="n">
-        <v>241.0969919981166</v>
+        <v>241.0969919981165</v>
       </c>
       <c r="W31" t="n">
         <v>275.4823470108796</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3275,10 +3275,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3554,7 +3554,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2458.479663754177</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.711008484063</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.245250222983</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,19 +4431,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>63.2569682722596</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>549.649320534154</v>
+        <v>924.4350995402963</v>
       </c>
       <c r="C5" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>228.2778626358874</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2328.401815203218</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2074.64002984131</v>
       </c>
       <c r="X5" t="n">
-        <v>936.2491605982757</v>
+        <v>1701.17427158023</v>
       </c>
       <c r="Y5" t="n">
-        <v>936.2491605982757</v>
+        <v>1311.034939604418</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4656,7 +4656,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.5342164887571</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721089</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="C8" t="n">
-        <v>228.2778626358874</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="E8" t="n">
         <v>228.2778626358874</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4832,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362306</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>333.7051469529986</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>333.7051469529986</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>736.1461909267684</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>515.3536117832383</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,13 +5303,13 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.29497012173</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300438</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028597</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T16" t="n">
-        <v>1151.239967633105</v>
+        <v>964.1357418247851</v>
       </c>
       <c r="U16" t="n">
-        <v>862.1113288466634</v>
+        <v>675.0071030383433</v>
       </c>
       <c r="V16" t="n">
-        <v>607.4268406407765</v>
+        <v>420.3226148324563</v>
       </c>
       <c r="W16" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954957</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954956</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954956</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,13 +5510,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,7 +5525,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5534,13 +5534,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.3459941729337</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>120.5300287366501</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172992</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969362</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
@@ -5692,31 +5692,31 @@
         <v>1536.594541272926</v>
       </c>
       <c r="Q19" t="n">
-        <v>1586.358229057537</v>
+        <v>1586.358229057536</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647462</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449756</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953629</v>
+        <v>913.4027961738268</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146765</v>
+        <v>635.1377991931403</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729337</v>
+        <v>635.1377991931403</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729337</v>
+        <v>425.4973931058843</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,40 +5738,40 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5783,19 +5783,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582214</v>
+        <v>474.8900731662877</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>168.3459941729335</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="C22" t="n">
-        <v>168.3459941729335</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="D22" t="n">
-        <v>168.3459941729335</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028587</v>
@@ -5911,10 +5911,10 @@
         <v>120.5300287366501</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937159</v>
       </c>
       <c r="L22" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M22" t="n">
         <v>822.7849551969364</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1463.222409842835</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1250.589167688615</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449758</v>
+        <v>972.6127019584471</v>
       </c>
       <c r="V22" t="n">
-        <v>663.4483689953631</v>
+        <v>729.0803868088344</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146767</v>
+        <v>450.815389828148</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729335</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729335</v>
+        <v>233.9780119864048</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C25" t="n">
         <v>97.21709146028587</v>
@@ -6148,10 +6148,10 @@
         <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M25" t="n">
         <v>822.7849551969364</v>
@@ -6169,28 +6169,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1515.229326344889</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
-        <v>1326.461489316716</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1113.828247162496</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>835.8517814323282</v>
+        <v>993.635791303961</v>
       </c>
       <c r="V25" t="n">
-        <v>592.3194662827156</v>
+        <v>750.1034761543483</v>
       </c>
       <c r="W25" t="n">
-        <v>314.054469302029</v>
+        <v>471.8384791736618</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>255.0011013319186</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6379,13 +6379,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366499</v>
       </c>
       <c r="K28" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L28" t="n">
         <v>540.2879676172993</v>
@@ -6397,7 +6397,7 @@
         <v>1104.259309036938</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449757</v>
+        <v>972.4561641439368</v>
       </c>
       <c r="V28" t="n">
-        <v>663.448368995363</v>
+        <v>972.4561641439368</v>
       </c>
       <c r="W28" t="n">
-        <v>385.1833720146765</v>
+        <v>694.1911671632504</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729331</v>
+        <v>477.3537893215073</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>267.7133832342514</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>281.0563059452533</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>254.240240084191</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K31" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L31" t="n">
         <v>540.2879676172993</v>
@@ -6643,28 +6643,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1515.22932634489</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S31" t="n">
-        <v>1326.461489316716</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1113.828247162496</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U31" t="n">
-        <v>835.8517814323282</v>
+        <v>1019.690995917295</v>
       </c>
       <c r="V31" t="n">
-        <v>592.3194662827156</v>
+        <v>776.1586807676827</v>
       </c>
       <c r="W31" t="n">
-        <v>314.054469302029</v>
+        <v>497.8936837869962</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>281.0563059452533</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>281.0563059452533</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6713,19 +6713,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1771.104817265284</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,52 +6932,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
         <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7163,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7205,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>452.0983189327502</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>698.8634468392142</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1006.183580119176</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1336.046207783209</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,31 +7588,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,10 +7804,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7816,40 +7816,40 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992669</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>306.1147370139963</v>
+        <v>283.6093329825492</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>223.6742649934479</v>
+        <v>62.91120742583806</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>230.7151863772034</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>403.7628319612157</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>145.2351313103796</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10361,7 +10361,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10428,7 +10428,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10437,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>272.8719470256806</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>286.5092576192346</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>165.9802687929767</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10914,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11148,19 +11148,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>306.1147370139962</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,10 +11376,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>59.91334610335801</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>82.39383318338592</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800799</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>85.78855608739507</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E19" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F19" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G19" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H19" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856062</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326779</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>135.8716742520833</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>214.6690040633258</v>
       </c>
       <c r="Y19" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,7 +24133,7 @@
         <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>64.97569763533646</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972198</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>163.8993987134181</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>137.5748216925009</v>
+        <v>137.574821692501</v>
       </c>
       <c r="E25" t="n">
-        <v>135.3933113208577</v>
+        <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972198</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
@@ -24382,7 +24382,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856059</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.50608739256029</v>
+        <v>98.92370107808139</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>85.78855608739563</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>156.2061697729164</v>
@@ -24613,13 +24613,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H28" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856056</v>
+        <v>99.37859413856054</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,10 +24655,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>163.7444262770532</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>137.1263883408626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
-        <v>156.2061697729164</v>
+        <v>129.6582645704647</v>
       </c>
       <c r="D31" t="n">
         <v>137.5748216925009</v>
@@ -24850,13 +24850,13 @@
         <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418246</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856057</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.50608739256062</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.433545766</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>632775.4335457659</v>
+        <v>632775.4335457658</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801855</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801857</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637829.2183801858</v>
+        <v>637829.2183801857</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710689</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.681371069</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.681371069</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
-        <v>748956.5829925191</v>
+        <v>748956.5829925193</v>
       </c>
       <c r="H2" t="n">
         <v>748956.5829925193</v>
       </c>
       <c r="I2" t="n">
+        <v>748956.5829925195</v>
+      </c>
+      <c r="J2" t="n">
+        <v>748956.5829925195</v>
+      </c>
+      <c r="K2" t="n">
         <v>748956.5829925191</v>
       </c>
-      <c r="J2" t="n">
-        <v>748956.5829925191</v>
-      </c>
-      <c r="K2" t="n">
-        <v>748956.5829925193</v>
-      </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="N2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26378,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569145</v>
+        <v>8832.521060569141</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.5121037125</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007437</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="G4" t="n">
-        <v>11549.65615884676</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="H4" t="n">
-        <v>11549.65615884677</v>
+        <v>11549.6561588468</v>
       </c>
       <c r="I4" t="n">
-        <v>11549.6561588468</v>
+        <v>11549.65615884679</v>
       </c>
       <c r="J4" t="n">
-        <v>11549.65615884678</v>
+        <v>11549.65615884681</v>
       </c>
       <c r="K4" t="n">
-        <v>11549.65615884679</v>
+        <v>11549.65615884682</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732798</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732801</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501785</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501788</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-40754.3246228057</v>
+        <v>-40754.3246228059</v>
       </c>
       <c r="C6" t="n">
-        <v>549213.5545917387</v>
+        <v>549213.5545917385</v>
       </c>
       <c r="D6" t="n">
         <v>549213.5545917387</v>
       </c>
       <c r="E6" t="n">
-        <v>117891.1194200269</v>
+        <v>117793.6602940547</v>
       </c>
       <c r="F6" t="n">
-        <v>643051.155896923</v>
+        <v>642953.696770951</v>
       </c>
       <c r="G6" t="n">
-        <v>635658.9033080854</v>
+        <v>635577.2372597209</v>
       </c>
       <c r="H6" t="n">
-        <v>644491.4243686546</v>
+        <v>644409.75832029</v>
       </c>
       <c r="I6" t="n">
-        <v>644491.4243686545</v>
+        <v>644409.7583202902</v>
       </c>
       <c r="J6" t="n">
-        <v>468068.2051760616</v>
+        <v>467986.5391276974</v>
       </c>
       <c r="K6" t="n">
-        <v>644491.4243686546</v>
+        <v>644409.7583202899</v>
       </c>
       <c r="L6" t="n">
-        <v>597433.5445500036</v>
+        <v>597433.5445500037</v>
       </c>
       <c r="M6" t="n">
-        <v>517138.041419879</v>
+        <v>517138.0414198791</v>
       </c>
       <c r="N6" t="n">
-        <v>651939.0566537161</v>
+        <v>651939.056653716</v>
       </c>
       <c r="O6" t="n">
-        <v>651939.0566537161</v>
+        <v>651939.0566537159</v>
       </c>
       <c r="P6" t="n">
-        <v>651939.0566537161</v>
+        <v>651939.0566537163</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H2" t="n">
         <v>11.04065132571143</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964069</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964067</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,22 +26744,22 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26923,7 +26923,7 @@
         <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>540.9263704990177</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545553</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>540.9263704990175</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545554</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>11.04065132571143</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,10 +27391,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>145.9479280535419</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3.552713678800501e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.50703242634981</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>209.3638067647186</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>47.1151484517236</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>25.80423010977515</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>192.2558333115945</v>
+        <v>209.1226826701055</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>42.48905394114826</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.1366436925989</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27904,7 +27904,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,7 +28068,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2116351988049</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571143</v>
+        <v>11.04065132571138</v>
       </c>
     </row>
     <row r="20">
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571143</v>
+        <v>11.0406513257114</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571144</v>
       </c>
     </row>
     <row r="29">
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571142</v>
+        <v>11.04065132571147</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29995,10 +29995,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328944</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>420.3639292382666</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>555.3724419700205</v>
+        <v>532.8670379385735</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>88.0130327850741</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35814,7 +35814,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056035</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206028</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127696</v>
+        <v>23.5484214912769</v>
       </c>
       <c r="K19" t="n">
-        <v>162.743079855622</v>
+        <v>162.7430798556219</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
-        <v>247.2780028463143</v>
+        <v>247.2780028463142</v>
       </c>
       <c r="P19" t="n">
-        <v>189.4242519375122</v>
+        <v>189.4242519375121</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758613</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>374.2497035813871</v>
+        <v>213.4866460137773</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L22" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M22" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N22" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O22" t="n">
         <v>247.2780028463143</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36443,19 +36443,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>541.1395634276697</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127696</v>
+        <v>23.54842149127693</v>
       </c>
       <c r="K25" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L25" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M25" t="n">
-        <v>285.350492504684</v>
+        <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O25" t="n">
         <v>247.2780028463143</v>
@@ -36534,7 +36534,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758619</v>
+        <v>50.26635129758616</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36680,22 +36680,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>714.1872090116819</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127697</v>
       </c>
       <c r="K28" t="n">
         <v>162.743079855622</v>
@@ -36759,7 +36759,7 @@
         <v>261.2548382056399</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
         <v>284.317529131315</v>
@@ -36771,7 +36771,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758619</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36920,16 +36920,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>427.5988335514877</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.548421491277</v>
       </c>
       <c r="K31" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O31" t="n">
         <v>247.2780028463143</v>
@@ -37008,7 +37008,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758622</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P32" t="n">
         <v>570.6060255109123</v>
@@ -37148,7 +37148,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,19 +37157,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>555.2356492667888</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37242,7 +37242,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980128</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>493.6026725507592</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086132</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,7 +37543,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>316.5557073809159</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,13 +37634,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686864</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,19 +37868,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>639.309310412009</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38096,10 +38096,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494724</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
